--- a/Demo2/TestData/DemoWriteTestPass.xlsx
+++ b/Demo2/TestData/DemoWriteTestPass.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="6">
-  <si>
-    <t>fsdfds</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>fsdfsdf</t>
   </si>
@@ -33,10 +30,22 @@
     <t>sf</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Create user</t>
+  </si>
+  <si>
+    <t>PassDetails</t>
+  </si>
+  <si>
+    <t>Log In user</t>
+  </si>
+  <si>
+    <t>Create user 0</t>
+  </si>
+  <si>
+    <t>Test Passed</t>
+  </si>
+  <si>
+    <t>Log In user 1</t>
   </si>
 </sst>
 </file>
@@ -355,69 +364,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.140625" collapsed="false"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
